--- a/data/trans_dic/P21B_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,81</t>
+          <t>0,0; 12,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 13,81</t>
+          <t>1,28; 13,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,9</t>
+          <t>0,0; 11,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 10,12</t>
+          <t>0,88; 10,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 9,68</t>
+          <t>0,98; 8,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,7</t>
+          <t>1,96; 8,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,96</t>
+          <t>0,0; 12,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,97</t>
+          <t>0,71; 5,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,93</t>
+          <t>1,28; 14,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,28</t>
+          <t>0,0; 4,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,58</t>
+          <t>1,0; 7,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,1</t>
+          <t>1,79; 9,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,57</t>
+          <t>0,52; 5,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,32</t>
+          <t>1,19; 5,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,61</t>
+          <t>2,52; 9,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,66</t>
+          <t>1,26; 11,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,65</t>
+          <t>0,0; 6,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 22,16</t>
+          <t>2,4; 20,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 22,69</t>
+          <t>3,62; 20,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,56</t>
+          <t>0,57; 5,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,0</t>
+          <t>0,57; 6,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 15,82</t>
+          <t>4,35; 16,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,12</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,97</t>
+          <t>1,21; 8,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,73</t>
+          <t>0,96; 10,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,98</t>
+          <t>0,82; 6,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,48</t>
+          <t>0,43; 4,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 15,63</t>
+          <t>4,41; 16,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,59</t>
+          <t>0,98; 5,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,2</t>
+          <t>1,22; 4,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 10,95</t>
+          <t>3,61; 11,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,07</t>
+          <t>0,0; 16,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,23</t>
+          <t>0,0; 17,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,64</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,16</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,46</t>
+          <t>0,84; 7,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,28</t>
+          <t>0,0; 6,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,75</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,02</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 17,11</t>
+          <t>4,44; 16,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 16,61</t>
+          <t>2,98; 16,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,8</t>
+          <t>3,2; 10,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,92</t>
+          <t>1,58; 7,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 17,29</t>
+          <t>5,66; 17,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,64</t>
+          <t>4,76; 10,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,22</t>
+          <t>1,24; 4,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,31</t>
+          <t>5,85; 14,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 10,71</t>
+          <t>1,08; 10,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,08</t>
+          <t>0,0; 10,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,16; 23,18</t>
+          <t>7,85; 23,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,79</t>
+          <t>0,75; 6,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,99; 14,82</t>
+          <t>2,97; 15,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,7; 19,65</t>
+          <t>6,59; 18,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,25</t>
+          <t>1,58; 6,92</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,49</t>
+          <t>2,46; 10,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,71; 18,34</t>
+          <t>8,85; 18,15</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,53</t>
+          <t>2,46; 6,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,74</t>
+          <t>1,3; 3,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,4</t>
+          <t>4,6; 9,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,28</t>
+          <t>1,81; 4,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,44</t>
+          <t>2,12; 4,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,41</t>
+          <t>5,44; 9,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,52</t>
+          <t>2,46; 4,54</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,77</t>
+          <t>2,04; 3,72</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,46</t>
+          <t>5,56; 8,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
